--- a/Code/Results/Cases/Case_7_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015340573912847</v>
+        <v>1.015340573912845</v>
       </c>
       <c r="D2">
-        <v>1.031430424937267</v>
+        <v>1.031430424937265</v>
       </c>
       <c r="E2">
-        <v>1.026045210568279</v>
+        <v>1.026045210568276</v>
       </c>
       <c r="F2">
-        <v>1.033826144452304</v>
+        <v>1.033826144452302</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053701395645134</v>
+        <v>1.053701395645133</v>
       </c>
       <c r="J2">
-        <v>1.037071936090535</v>
+        <v>1.037071936090533</v>
       </c>
       <c r="K2">
-        <v>1.042468584397562</v>
+        <v>1.04246858439756</v>
       </c>
       <c r="L2">
-        <v>1.037153238097079</v>
+        <v>1.037153238097077</v>
       </c>
       <c r="M2">
-        <v>1.044833514160462</v>
+        <v>1.04483351416046</v>
       </c>
       <c r="N2">
-        <v>1.038544697193597</v>
+        <v>1.038544697193595</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024602083663606</v>
+        <v>1.024602083663607</v>
       </c>
       <c r="D3">
-        <v>1.038654665522407</v>
+        <v>1.038654665522409</v>
       </c>
       <c r="E3">
-        <v>1.034253269132834</v>
+        <v>1.034253269132835</v>
       </c>
       <c r="F3">
-        <v>1.042382185132187</v>
+        <v>1.042382185132189</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057113153093699</v>
+        <v>1.0571131530937</v>
       </c>
       <c r="J3">
-        <v>1.044443821927681</v>
+        <v>1.044443821927683</v>
       </c>
       <c r="K3">
-        <v>1.048815734873505</v>
+        <v>1.048815734873507</v>
       </c>
       <c r="L3">
-        <v>1.044465857627982</v>
+        <v>1.044465857627983</v>
       </c>
       <c r="M3">
-        <v>1.052500043558031</v>
+        <v>1.052500043558032</v>
       </c>
       <c r="N3">
-        <v>1.0459270519542</v>
+        <v>1.045927051954201</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030377815010266</v>
+        <v>1.030377815010265</v>
       </c>
       <c r="D4">
-        <v>1.043161753659398</v>
+        <v>1.043161753659397</v>
       </c>
       <c r="E4">
-        <v>1.039374044197842</v>
+        <v>1.039374044197841</v>
       </c>
       <c r="F4">
-        <v>1.047723519724044</v>
+        <v>1.047723519724043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059224849967956</v>
+        <v>1.059224849967955</v>
       </c>
       <c r="J4">
-        <v>1.049035129266939</v>
+        <v>1.049035129266938</v>
       </c>
       <c r="K4">
-        <v>1.05276573404677</v>
+        <v>1.052765734046768</v>
       </c>
       <c r="L4">
-        <v>1.049019395143478</v>
+        <v>1.049019395143477</v>
       </c>
       <c r="M4">
-        <v>1.05727816178976</v>
+        <v>1.057278161789758</v>
       </c>
       <c r="N4">
-        <v>1.050524879476509</v>
+        <v>1.050524879476508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032757519231672</v>
+        <v>1.032757519231671</v>
       </c>
       <c r="D5">
         <v>1.045019055020091</v>
       </c>
       <c r="E5">
-        <v>1.041484277303184</v>
+        <v>1.041484277303183</v>
       </c>
       <c r="F5">
-        <v>1.049925468125426</v>
+        <v>1.049925468125425</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060091000716667</v>
+        <v>1.060091000716666</v>
       </c>
       <c r="J5">
-        <v>1.050925315281822</v>
+        <v>1.050925315281821</v>
       </c>
       <c r="K5">
-        <v>1.054391125702183</v>
+        <v>1.054391125702182</v>
       </c>
       <c r="L5">
         <v>1.050893822310906</v>
       </c>
       <c r="M5">
-        <v>1.059246033863808</v>
+        <v>1.059246033863807</v>
       </c>
       <c r="N5">
-        <v>1.052417749772341</v>
+        <v>1.05241774977234</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,13 +585,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033154339503827</v>
+        <v>1.033154339503828</v>
       </c>
       <c r="D6">
         <v>1.04532877734245</v>
       </c>
       <c r="E6">
-        <v>1.041836182568044</v>
+        <v>1.041836182568045</v>
       </c>
       <c r="F6">
         <v>1.050292716272079</v>
@@ -603,7 +603,7 @@
         <v>1.060235201150276</v>
       </c>
       <c r="J6">
-        <v>1.051240416314362</v>
+        <v>1.051240416314363</v>
       </c>
       <c r="K6">
         <v>1.054662037944309</v>
@@ -612,10 +612,10 @@
         <v>1.05120628387121</v>
       </c>
       <c r="M6">
-        <v>1.059574130866312</v>
+        <v>1.059574130866313</v>
       </c>
       <c r="N6">
-        <v>1.05273329828449</v>
+        <v>1.052733298284491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,16 +626,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030409798544029</v>
+        <v>1.03040979854403</v>
       </c>
       <c r="D7">
-        <v>1.043186715020413</v>
+        <v>1.043186715020414</v>
       </c>
       <c r="E7">
-        <v>1.039402404611922</v>
+        <v>1.039402404611923</v>
       </c>
       <c r="F7">
-        <v>1.047753109484368</v>
+        <v>1.047753109484369</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -644,16 +644,16 @@
         <v>1.0592365067222</v>
       </c>
       <c r="J7">
-        <v>1.049060539707952</v>
+        <v>1.049060539707953</v>
       </c>
       <c r="K7">
-        <v>1.05278758788167</v>
+        <v>1.052787587881671</v>
       </c>
       <c r="L7">
-        <v>1.049044594567333</v>
+        <v>1.049044594567335</v>
       </c>
       <c r="M7">
-        <v>1.057304613523857</v>
+        <v>1.057304613523858</v>
       </c>
       <c r="N7">
         <v>1.050550326003264</v>
@@ -673,7 +673,7 @@
         <v>1.033908234093495</v>
       </c>
       <c r="E8">
-        <v>1.028860518278171</v>
+        <v>1.028860518278172</v>
       </c>
       <c r="F8">
         <v>1.036760069171826</v>
@@ -691,7 +691,7 @@
         <v>1.044647680076464</v>
       </c>
       <c r="L8">
-        <v>1.039663246771237</v>
+        <v>1.039663246771238</v>
       </c>
       <c r="M8">
         <v>1.047464101308392</v>
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957164761508555</v>
+        <v>0.9957164761508537</v>
       </c>
       <c r="D9">
-        <v>1.016141142633308</v>
+        <v>1.016141142633306</v>
       </c>
       <c r="E9">
-        <v>1.008669897738786</v>
+        <v>1.008669897738785</v>
       </c>
       <c r="F9">
-        <v>1.015734261400371</v>
+        <v>1.01573426140037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046385068470888</v>
+        <v>1.046385068470887</v>
       </c>
       <c r="J9">
-        <v>1.021421408781744</v>
+        <v>1.021421408781742</v>
       </c>
       <c r="K9">
-        <v>1.028977658857005</v>
+        <v>1.028977658857004</v>
       </c>
       <c r="L9">
-        <v>1.021623860738723</v>
+        <v>1.021623860738722</v>
       </c>
       <c r="M9">
-        <v>1.028577116864916</v>
+        <v>1.028577116864914</v>
       </c>
       <c r="N9">
-        <v>1.022871944340887</v>
+        <v>1.022871944340885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789721097823023</v>
+        <v>0.9789721097823014</v>
       </c>
       <c r="D10">
-        <v>1.003122412130383</v>
+        <v>1.003122412130382</v>
       </c>
       <c r="E10">
-        <v>0.9938668780589781</v>
+        <v>0.993866878058977</v>
       </c>
       <c r="F10">
-        <v>1.000339353519277</v>
+        <v>1.000339353519276</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -770,16 +770,16 @@
         <v>1.008045595224347</v>
       </c>
       <c r="K10">
-        <v>1.017435518388599</v>
+        <v>1.017435518388598</v>
       </c>
       <c r="L10">
-        <v>1.008347757959677</v>
+        <v>1.008347757959676</v>
       </c>
       <c r="M10">
-        <v>1.014702483535342</v>
+        <v>1.014702483535341</v>
       </c>
       <c r="N10">
-        <v>1.009477135594012</v>
+        <v>1.009477135594011</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9712706903642281</v>
+        <v>0.9712706903642246</v>
       </c>
       <c r="D11">
-        <v>0.99714492400307</v>
+        <v>0.997144924003067</v>
       </c>
       <c r="E11">
-        <v>0.9870666654507689</v>
+        <v>0.9870666654507657</v>
       </c>
       <c r="F11">
-        <v>0.993272262364705</v>
+        <v>0.9932722623647019</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037145904941088</v>
+        <v>1.037145904941086</v>
       </c>
       <c r="J11">
-        <v>1.001889483634895</v>
+        <v>1.001889483634891</v>
       </c>
       <c r="K11">
-        <v>1.012120884477978</v>
+        <v>1.012120884477975</v>
       </c>
       <c r="L11">
-        <v>1.002236677771879</v>
+        <v>1.002236677771876</v>
       </c>
       <c r="M11">
-        <v>1.008322179101655</v>
+        <v>1.008322179101652</v>
       </c>
       <c r="N11">
-        <v>1.003312281619986</v>
+        <v>1.003312281619983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9683333725667074</v>
+        <v>0.9683333725667104</v>
       </c>
       <c r="D12">
-        <v>0.994867027629829</v>
+        <v>0.9948670276298315</v>
       </c>
       <c r="E12">
-        <v>0.9844745785779179</v>
+        <v>0.9844745785779206</v>
       </c>
       <c r="F12">
-        <v>0.9905792172647596</v>
+        <v>0.9905792172647622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036028634761904</v>
+        <v>1.036028634761905</v>
       </c>
       <c r="J12">
-        <v>0.999541129785332</v>
+        <v>0.9995411297853347</v>
       </c>
       <c r="K12">
-        <v>1.010093232461983</v>
+        <v>1.010093232461985</v>
       </c>
       <c r="L12">
-        <v>0.9999053907280324</v>
+        <v>0.9999053907280351</v>
       </c>
       <c r="M12">
-        <v>1.005889157934208</v>
+        <v>1.00588915793421</v>
       </c>
       <c r="N12">
-        <v>1.000960592838597</v>
+        <v>1.0009605928386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689670683763245</v>
+        <v>0.9689670683763216</v>
       </c>
       <c r="D13">
-        <v>0.9953583674358654</v>
+        <v>0.9953583674358626</v>
       </c>
       <c r="E13">
-        <v>0.9850337215619754</v>
+        <v>0.9850337215619729</v>
       </c>
       <c r="F13">
-        <v>0.9911601031383158</v>
+        <v>0.9911601031383132</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036269783578268</v>
+        <v>1.036269783578267</v>
       </c>
       <c r="J13">
-        <v>1.000047778088534</v>
+        <v>1.000047778088531</v>
       </c>
       <c r="K13">
-        <v>1.010530702524027</v>
+        <v>1.010530702524024</v>
       </c>
       <c r="L13">
-        <v>1.000408361603758</v>
+        <v>1.000408361603756</v>
       </c>
       <c r="M13">
-        <v>1.006414033523425</v>
+        <v>1.006414033523422</v>
       </c>
       <c r="N13">
-        <v>1.001467960640503</v>
+        <v>1.0014679606405</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710295123843783</v>
+        <v>0.9710295123843776</v>
       </c>
       <c r="D14">
-        <v>0.9969578489634664</v>
+        <v>0.9969578489634657</v>
       </c>
       <c r="E14">
-        <v>0.9868538015338559</v>
+        <v>0.9868538015338553</v>
       </c>
       <c r="F14">
-        <v>0.9930510920251253</v>
+        <v>0.9930510920251249</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,16 +931,16 @@
         <v>1.037054217219253</v>
       </c>
       <c r="J14">
-        <v>1.001696671650249</v>
+        <v>1.001696671650248</v>
       </c>
       <c r="K14">
         <v>1.011954409253152</v>
       </c>
       <c r="L14">
-        <v>1.002045269188194</v>
+        <v>1.002045269188193</v>
       </c>
       <c r="M14">
-        <v>1.00812239790971</v>
+        <v>1.008122397909709</v>
       </c>
       <c r="N14">
         <v>1.003119195820206</v>
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9722897975531065</v>
+        <v>0.9722897975531078</v>
       </c>
       <c r="D15">
-        <v>0.9979354968996779</v>
+        <v>0.9979354968996792</v>
       </c>
       <c r="E15">
-        <v>0.9879661933315552</v>
+        <v>0.9879661933315567</v>
       </c>
       <c r="F15">
-        <v>0.9942069231078177</v>
+        <v>0.9942069231078188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037533235133273</v>
+        <v>1.037533235133274</v>
       </c>
       <c r="J15">
-        <v>1.002704202744065</v>
+        <v>1.002704202744066</v>
       </c>
       <c r="K15">
-        <v>1.012824307245821</v>
+        <v>1.012824307245822</v>
       </c>
       <c r="L15">
-        <v>1.003045462483242</v>
+        <v>1.003045462483243</v>
       </c>
       <c r="M15">
-        <v>1.009166381232734</v>
+        <v>1.009166381232735</v>
       </c>
       <c r="N15">
-        <v>1.004128157723741</v>
+        <v>1.004128157723742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9794730024529842</v>
+        <v>0.9794730024529835</v>
       </c>
       <c r="D16">
-        <v>1.003511423534654</v>
+        <v>1.003511423534653</v>
       </c>
       <c r="E16">
-        <v>0.9943093487293662</v>
+        <v>0.9943093487293655</v>
       </c>
       <c r="F16">
-        <v>1.000799293737196</v>
+        <v>1.000799293737195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04025851152755</v>
+        <v>1.040258511527549</v>
       </c>
       <c r="J16">
-        <v>1.008445914911982</v>
+        <v>1.008445914911981</v>
       </c>
       <c r="K16">
-        <v>1.017781073994341</v>
+        <v>1.01778107399434</v>
       </c>
       <c r="L16">
-        <v>1.008745133072487</v>
+        <v>1.008745133072486</v>
       </c>
       <c r="M16">
-        <v>1.015117496310875</v>
+        <v>1.015117496310874</v>
       </c>
       <c r="N16">
-        <v>1.00987802378152</v>
+        <v>1.009878023781519</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9838523042545113</v>
+        <v>0.9838523042545102</v>
       </c>
       <c r="D17">
-        <v>1.006913743097196</v>
+        <v>1.006913743097195</v>
       </c>
       <c r="E17">
-        <v>0.9981788222054528</v>
+        <v>0.998178822205452</v>
       </c>
       <c r="F17">
-        <v>1.004822104828266</v>
+        <v>1.004822104828265</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041915520523014</v>
+        <v>1.041915520523013</v>
       </c>
       <c r="J17">
-        <v>1.011945476377885</v>
+        <v>1.011945476377884</v>
       </c>
       <c r="K17">
-        <v>1.020801625646866</v>
+        <v>1.020801625646865</v>
       </c>
       <c r="L17">
-        <v>1.012218858793364</v>
+        <v>1.012218858793363</v>
       </c>
       <c r="M17">
-        <v>1.018746110064601</v>
+        <v>1.0187461100646</v>
       </c>
       <c r="N17">
-        <v>1.01338255502611</v>
+        <v>1.013382555026109</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9863638437582881</v>
+        <v>0.9863638437582865</v>
       </c>
       <c r="D18">
-        <v>1.008865919082699</v>
+        <v>1.008865919082698</v>
       </c>
       <c r="E18">
-        <v>1.000398727276096</v>
+        <v>1.000398727276095</v>
       </c>
       <c r="F18">
-        <v>1.007130445763534</v>
+        <v>1.007130445763533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042864157661473</v>
+        <v>1.042864157661472</v>
       </c>
       <c r="J18">
-        <v>1.013952094599428</v>
+        <v>1.013952094599427</v>
       </c>
       <c r="K18">
-        <v>1.022533350181603</v>
+        <v>1.022533350181601</v>
       </c>
       <c r="L18">
-        <v>1.014210581715499</v>
+        <v>1.014210581715497</v>
       </c>
       <c r="M18">
-        <v>1.020827223142447</v>
+        <v>1.020827223142446</v>
       </c>
       <c r="N18">
-        <v>1.015392022875691</v>
+        <v>1.015392022875689</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,7 +1118,7 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9872131928714294</v>
+        <v>0.9872131928714295</v>
       </c>
       <c r="D19">
         <v>1.009526252903105</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04318468015304</v>
+        <v>1.043184680153041</v>
       </c>
       <c r="J19">
         <v>1.014630619214312</v>
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833869361720247</v>
+        <v>0.9833869361720237</v>
       </c>
       <c r="D20">
-        <v>1.006552094396695</v>
+        <v>1.006552094396693</v>
       </c>
       <c r="E20">
-        <v>0.997767551087236</v>
+        <v>0.9977675510872349</v>
       </c>
       <c r="F20">
-        <v>1.004394487392361</v>
+        <v>1.00439448739236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041739609707793</v>
+        <v>1.041739609707792</v>
       </c>
       <c r="J20">
-        <v>1.011573633408206</v>
+        <v>1.011573633408205</v>
       </c>
       <c r="K20">
-        <v>1.020480703295589</v>
+        <v>1.020480703295588</v>
       </c>
       <c r="L20">
-        <v>1.01184976933349</v>
+        <v>1.011849769333488</v>
       </c>
       <c r="M20">
-        <v>1.018360502671955</v>
+        <v>1.018360502671954</v>
       </c>
       <c r="N20">
-        <v>1.013010183996763</v>
+        <v>1.013010183996762</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9704243705582687</v>
+        <v>0.9704243705582677</v>
       </c>
       <c r="D21">
-        <v>0.9964884893567535</v>
+        <v>0.9964884893567528</v>
       </c>
       <c r="E21">
-        <v>0.9863197280032077</v>
+        <v>0.9863197280032068</v>
       </c>
       <c r="F21">
-        <v>0.9924961901690756</v>
+        <v>0.9924961901690749</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.036824123347222</v>
       </c>
       <c r="J21">
-        <v>1.001212879405782</v>
+        <v>1.001212879405781</v>
       </c>
       <c r="K21">
-        <v>1.011536695176141</v>
+        <v>1.01153669517614</v>
       </c>
       <c r="L21">
-        <v>1.001564996558774</v>
+        <v>1.001564996558773</v>
       </c>
       <c r="M21">
-        <v>1.007621132838272</v>
+        <v>1.007621132838271</v>
       </c>
       <c r="N21">
-        <v>1.00263471653526</v>
+        <v>1.002634716535259</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618249583952413</v>
+        <v>0.9618249583952387</v>
       </c>
       <c r="D22">
-        <v>0.9898237366448512</v>
+        <v>0.9898237366448489</v>
       </c>
       <c r="E22">
-        <v>0.9787342508871497</v>
+        <v>0.9787342508871477</v>
       </c>
       <c r="F22">
-        <v>0.9846167548884114</v>
+        <v>0.9846167548884093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033548621520799</v>
+        <v>1.033548621520798</v>
       </c>
       <c r="J22">
-        <v>0.9943371949790796</v>
+        <v>0.9943371949790772</v>
       </c>
       <c r="K22">
-        <v>1.005599519202079</v>
+        <v>1.005599519202077</v>
       </c>
       <c r="L22">
-        <v>0.9947390946995545</v>
+        <v>0.9947390946995526</v>
       </c>
       <c r="M22">
-        <v>1.000499243144359</v>
+        <v>1.000499243144357</v>
       </c>
       <c r="N22">
-        <v>0.9957492678480204</v>
+        <v>0.9957492678480181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966429708761905</v>
+        <v>0.9664297087619057</v>
       </c>
       <c r="D23">
-        <v>0.9933913223701938</v>
+        <v>0.993391322370194</v>
       </c>
       <c r="E23">
-        <v>0.9827951209616373</v>
+        <v>0.982795120961638</v>
       </c>
       <c r="F23">
-        <v>0.988834566220373</v>
+        <v>0.9888345662203737</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>1.035303856980112</v>
       </c>
       <c r="J23">
-        <v>0.9980190806012981</v>
+        <v>0.9980190806012985</v>
       </c>
       <c r="K23">
-        <v>1.008778968581753</v>
+        <v>1.008778968581754</v>
       </c>
       <c r="L23">
-        <v>0.9983943744771927</v>
+        <v>0.9983943744771933</v>
       </c>
       <c r="M23">
         <v>1.004312480582286</v>
       </c>
       <c r="N23">
-        <v>0.9994363821701403</v>
+        <v>0.999436382170141</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9835973476928075</v>
+        <v>0.9835973476928053</v>
       </c>
       <c r="D24">
-        <v>1.006715607342913</v>
+        <v>1.006715607342912</v>
       </c>
       <c r="E24">
-        <v>0.9979535008810627</v>
+        <v>0.9979535008810613</v>
       </c>
       <c r="F24">
-        <v>1.004587826466993</v>
+        <v>1.004587826466991</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.041819151204599</v>
       </c>
       <c r="J24">
-        <v>1.011741759706762</v>
+        <v>1.01174175970676</v>
       </c>
       <c r="K24">
-        <v>1.020625806911338</v>
+        <v>1.020625806911336</v>
       </c>
       <c r="L24">
-        <v>1.012016650905305</v>
+        <v>1.012016650905303</v>
       </c>
       <c r="M24">
-        <v>1.018534850916796</v>
+        <v>1.018534850916794</v>
       </c>
       <c r="N24">
-        <v>1.013178549053947</v>
+        <v>1.013178549053945</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001858199054992</v>
+        <v>1.001858199054994</v>
       </c>
       <c r="D25">
-        <v>1.020923031873251</v>
+        <v>1.020923031873252</v>
       </c>
       <c r="E25">
-        <v>1.014105065324479</v>
+        <v>1.014105065324481</v>
       </c>
       <c r="F25">
-        <v>1.021390863988218</v>
+        <v>1.021390863988219</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048686119361859</v>
+        <v>1.04868611936186</v>
       </c>
       <c r="J25">
-        <v>1.02632318880734</v>
+        <v>1.026323188807341</v>
       </c>
       <c r="K25">
-        <v>1.033205000791244</v>
+        <v>1.033205000791245</v>
       </c>
       <c r="L25">
-        <v>1.026488294350152</v>
+        <v>1.026488294350153</v>
       </c>
       <c r="M25">
-        <v>1.033665947626156</v>
+        <v>1.033665947626158</v>
       </c>
       <c r="N25">
-        <v>1.027780685456362</v>
+        <v>1.027780685456363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015340573912845</v>
+        <v>1.005930475894277</v>
       </c>
       <c r="D2">
-        <v>1.031430424937265</v>
+        <v>1.022711100267591</v>
       </c>
       <c r="E2">
-        <v>1.026045210568276</v>
+        <v>1.021221588430917</v>
       </c>
       <c r="F2">
-        <v>1.033826144452302</v>
+        <v>1.031740742281719</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053701395645133</v>
+        <v>1.049367253648979</v>
       </c>
       <c r="J2">
-        <v>1.037071936090533</v>
+        <v>1.027935242843387</v>
       </c>
       <c r="K2">
-        <v>1.04246858439756</v>
+        <v>1.033862847074978</v>
       </c>
       <c r="L2">
-        <v>1.037153238097077</v>
+        <v>1.032392982513326</v>
       </c>
       <c r="M2">
-        <v>1.04483351416046</v>
+        <v>1.042774903466246</v>
       </c>
       <c r="N2">
-        <v>1.038544697193595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012841997019328</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042425854874858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024602083663607</v>
+        <v>1.01078045932284</v>
       </c>
       <c r="D3">
-        <v>1.038654665522409</v>
+        <v>1.026183770845239</v>
       </c>
       <c r="E3">
-        <v>1.034253269132835</v>
+        <v>1.02502741781166</v>
       </c>
       <c r="F3">
-        <v>1.042382185132189</v>
+        <v>1.035257793233768</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0571131530937</v>
+        <v>1.050705811339754</v>
       </c>
       <c r="J3">
-        <v>1.044443821927683</v>
+        <v>1.030981490954732</v>
       </c>
       <c r="K3">
-        <v>1.048815734873507</v>
+        <v>1.036492238040064</v>
       </c>
       <c r="L3">
-        <v>1.044465857627983</v>
+        <v>1.035349777803613</v>
       </c>
       <c r="M3">
-        <v>1.052500043558032</v>
+        <v>1.045458575845384</v>
       </c>
       <c r="N3">
-        <v>1.045927051954201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013893806643188</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044549792873532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030377815010265</v>
+        <v>1.013850183441344</v>
       </c>
       <c r="D4">
-        <v>1.043161753659397</v>
+        <v>1.028382073673604</v>
       </c>
       <c r="E4">
-        <v>1.039374044197841</v>
+        <v>1.027442537918478</v>
       </c>
       <c r="F4">
-        <v>1.047723519724043</v>
+        <v>1.037491650431347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059224849967955</v>
+        <v>1.051538666175427</v>
       </c>
       <c r="J4">
-        <v>1.049035129266938</v>
+        <v>1.032906115131498</v>
       </c>
       <c r="K4">
-        <v>1.052765734046768</v>
+        <v>1.038149607106143</v>
       </c>
       <c r="L4">
-        <v>1.049019395143477</v>
+        <v>1.037220664275499</v>
       </c>
       <c r="M4">
-        <v>1.057278161789758</v>
+        <v>1.047157699543321</v>
       </c>
       <c r="N4">
-        <v>1.050524879476508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014557795046656</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045894526623502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032757519231671</v>
+        <v>1.015124885494471</v>
       </c>
       <c r="D5">
-        <v>1.045019055020091</v>
+        <v>1.029294928948306</v>
       </c>
       <c r="E5">
-        <v>1.041484277303183</v>
+        <v>1.028446868264893</v>
       </c>
       <c r="F5">
-        <v>1.049925468125425</v>
+        <v>1.03842106726001</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060091000716666</v>
+        <v>1.05188100318603</v>
       </c>
       <c r="J5">
-        <v>1.050925315281821</v>
+        <v>1.033704441867864</v>
       </c>
       <c r="K5">
-        <v>1.054391125702182</v>
+        <v>1.038836124050757</v>
       </c>
       <c r="L5">
-        <v>1.050893822310906</v>
+        <v>1.037997365378767</v>
       </c>
       <c r="M5">
-        <v>1.059246033863807</v>
+        <v>1.047863339976332</v>
       </c>
       <c r="N5">
-        <v>1.05241774977234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014833077435435</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046452989363548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033154339503828</v>
+        <v>1.015338003285275</v>
       </c>
       <c r="D6">
-        <v>1.04532877734245</v>
+        <v>1.02944754816438</v>
       </c>
       <c r="E6">
-        <v>1.041836182568045</v>
+        <v>1.0286148664034</v>
       </c>
       <c r="F6">
-        <v>1.050292716272079</v>
+        <v>1.038576561290686</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060235201150276</v>
+        <v>1.051938030803815</v>
       </c>
       <c r="J6">
-        <v>1.051240416314363</v>
+        <v>1.033837861750049</v>
       </c>
       <c r="K6">
-        <v>1.054662037944309</v>
+        <v>1.038950801104913</v>
       </c>
       <c r="L6">
-        <v>1.05120628387121</v>
+        <v>1.038127210112914</v>
       </c>
       <c r="M6">
-        <v>1.059574130866313</v>
+        <v>1.047981319518775</v>
       </c>
       <c r="N6">
-        <v>1.052733298284491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014879075576381</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04654636149231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03040979854403</v>
+        <v>1.013867277425463</v>
       </c>
       <c r="D7">
-        <v>1.043186715020414</v>
+        <v>1.028394315273321</v>
       </c>
       <c r="E7">
-        <v>1.039402404611923</v>
+        <v>1.027456000499179</v>
       </c>
       <c r="F7">
-        <v>1.047753109484369</v>
+        <v>1.037504107011967</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0592365067222</v>
+        <v>1.051543270906806</v>
       </c>
       <c r="J7">
-        <v>1.049060539707953</v>
+        <v>1.032916824343883</v>
       </c>
       <c r="K7">
-        <v>1.052787587881671</v>
+        <v>1.038158820235403</v>
       </c>
       <c r="L7">
-        <v>1.049044594567335</v>
+        <v>1.037231080764402</v>
       </c>
       <c r="M7">
-        <v>1.057304613523858</v>
+        <v>1.047167162055609</v>
       </c>
       <c r="N7">
-        <v>1.050550326003264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014561488394115</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045902015511996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018517760268966</v>
+        <v>1.007584112727465</v>
       </c>
       <c r="D8">
-        <v>1.033908234093495</v>
+        <v>1.023895021071301</v>
       </c>
       <c r="E8">
-        <v>1.028860518278172</v>
+        <v>1.022517861970929</v>
       </c>
       <c r="F8">
-        <v>1.036760069171826</v>
+        <v>1.032938231909733</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0548751465482</v>
+        <v>1.049826623560515</v>
       </c>
       <c r="J8">
-        <v>1.03960210651195</v>
+        <v>1.028974580275165</v>
       </c>
       <c r="K8">
-        <v>1.044647680076464</v>
+        <v>1.034760761830535</v>
       </c>
       <c r="L8">
-        <v>1.039663246771238</v>
+        <v>1.033401214393397</v>
       </c>
       <c r="M8">
-        <v>1.047464101308392</v>
+        <v>1.043689778840382</v>
       </c>
       <c r="N8">
-        <v>1.041078460747225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013200970769594</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043149915104223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957164761508537</v>
+        <v>0.9959588311042999</v>
       </c>
       <c r="D9">
-        <v>1.016141142633306</v>
+        <v>1.015576229859137</v>
       </c>
       <c r="E9">
-        <v>1.008669897738785</v>
+        <v>1.013433965318756</v>
       </c>
       <c r="F9">
-        <v>1.01573426140037</v>
+        <v>1.024555582560012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046385068470887</v>
+        <v>1.046538515419774</v>
       </c>
       <c r="J9">
-        <v>1.021421408781742</v>
+        <v>1.021655104997666</v>
       </c>
       <c r="K9">
-        <v>1.028977658857004</v>
+        <v>1.028421549218023</v>
       </c>
       <c r="L9">
-        <v>1.021623860738722</v>
+        <v>1.026312782032073</v>
       </c>
       <c r="M9">
-        <v>1.028577116864914</v>
+        <v>1.037262440529026</v>
       </c>
       <c r="N9">
-        <v>1.022871944340885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010670850499121</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038063108495142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789721097823014</v>
+        <v>0.9878944622670845</v>
       </c>
       <c r="D10">
-        <v>1.003122412130382</v>
+        <v>1.009821644504685</v>
       </c>
       <c r="E10">
-        <v>0.993866878058977</v>
+        <v>1.007210051584374</v>
       </c>
       <c r="F10">
-        <v>1.000339353519276</v>
+        <v>1.018869873140213</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040068762545723</v>
+        <v>1.044204868410414</v>
       </c>
       <c r="J10">
-        <v>1.008045595224347</v>
+        <v>1.016596744664771</v>
       </c>
       <c r="K10">
-        <v>1.017435518388598</v>
+        <v>1.024015801927528</v>
       </c>
       <c r="L10">
-        <v>1.008347757959676</v>
+        <v>1.021450335249005</v>
       </c>
       <c r="M10">
-        <v>1.014702483535341</v>
+        <v>1.03290658425762</v>
       </c>
       <c r="N10">
-        <v>1.009477135594011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008933904400907</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034667397598552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9712706903642246</v>
+        <v>0.9851097739216959</v>
       </c>
       <c r="D11">
-        <v>0.997144924003067</v>
+        <v>1.007895440577266</v>
       </c>
       <c r="E11">
-        <v>0.9870666654507657</v>
+        <v>1.005378623699414</v>
       </c>
       <c r="F11">
-        <v>0.9932722623647019</v>
+        <v>1.017566532079911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037145904941086</v>
+        <v>1.043531066575847</v>
       </c>
       <c r="J11">
-        <v>1.001889483634891</v>
+        <v>1.015115397040951</v>
       </c>
       <c r="K11">
-        <v>1.012120884477975</v>
+        <v>1.022669980811009</v>
       </c>
       <c r="L11">
-        <v>1.002236677771876</v>
+        <v>1.020199814918389</v>
       </c>
       <c r="M11">
-        <v>1.008322179101652</v>
+        <v>1.032164602503692</v>
       </c>
       <c r="N11">
-        <v>1.003312281619983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008544067002168</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034518411512099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9683333725667104</v>
+        <v>0.9843657823057105</v>
       </c>
       <c r="D12">
-        <v>0.9948670276298315</v>
+        <v>1.007407484177122</v>
       </c>
       <c r="E12">
-        <v>0.9844745785779206</v>
+        <v>1.0050359692748</v>
       </c>
       <c r="F12">
-        <v>0.9905792172647622</v>
+        <v>1.0175232585323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036028634761905</v>
+        <v>1.043417090092675</v>
       </c>
       <c r="J12">
-        <v>0.9995411297853347</v>
+        <v>1.014846871868675</v>
       </c>
       <c r="K12">
-        <v>1.010093232461985</v>
+        <v>1.022394131300778</v>
       </c>
       <c r="L12">
-        <v>0.9999053907280351</v>
+        <v>1.020067319887725</v>
       </c>
       <c r="M12">
-        <v>1.00588915793421</v>
+        <v>1.032322268547668</v>
       </c>
       <c r="N12">
-        <v>1.0009605928386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008548144739843</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.034970807363538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689670683763216</v>
+        <v>0.985149159269616</v>
       </c>
       <c r="D13">
-        <v>0.9953583674358626</v>
+        <v>1.007998322093404</v>
       </c>
       <c r="E13">
-        <v>0.9850337215619729</v>
+        <v>1.005821495576363</v>
       </c>
       <c r="F13">
-        <v>0.9911601031383132</v>
+        <v>1.018461751544278</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036269783578267</v>
+        <v>1.043734521060065</v>
       </c>
       <c r="J13">
-        <v>1.000047778088531</v>
+        <v>1.015500633818852</v>
       </c>
       <c r="K13">
-        <v>1.010530702524024</v>
+        <v>1.022930349758446</v>
       </c>
       <c r="L13">
-        <v>1.000408361603756</v>
+        <v>1.020794346176386</v>
       </c>
       <c r="M13">
-        <v>1.006414033523422</v>
+        <v>1.03320072319577</v>
       </c>
       <c r="N13">
-        <v>1.0014679606405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008857200858475</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035942930110944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710295123843776</v>
+        <v>0.9863826886072316</v>
       </c>
       <c r="D14">
-        <v>0.9969578489634657</v>
+        <v>1.008895390167203</v>
       </c>
       <c r="E14">
-        <v>0.9868538015338553</v>
+        <v>1.006875118256835</v>
       </c>
       <c r="F14">
-        <v>0.9930510920251249</v>
+        <v>1.019556936898776</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037054217219253</v>
+        <v>1.044148854375318</v>
       </c>
       <c r="J14">
-        <v>1.001696671650248</v>
+        <v>1.01636962630947</v>
       </c>
       <c r="K14">
-        <v>1.011954409253152</v>
+        <v>1.023668231267503</v>
       </c>
       <c r="L14">
-        <v>1.002045269188193</v>
+        <v>1.021685334574131</v>
       </c>
       <c r="M14">
-        <v>1.008122397909709</v>
+        <v>1.034135725848821</v>
       </c>
       <c r="N14">
-        <v>1.003119195820206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009208631882053</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036855769209204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9722897975531078</v>
+        <v>0.987020960169854</v>
       </c>
       <c r="D15">
-        <v>0.9979354968996792</v>
+        <v>1.009353797896952</v>
       </c>
       <c r="E15">
-        <v>0.9879661933315567</v>
+        <v>1.00738694010384</v>
       </c>
       <c r="F15">
-        <v>0.9942069231078188</v>
+        <v>1.020053523164887</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037533235133274</v>
+        <v>1.044347192767085</v>
       </c>
       <c r="J15">
-        <v>1.002704202744066</v>
+        <v>1.016789406539447</v>
       </c>
       <c r="K15">
-        <v>1.012824307245822</v>
+        <v>1.024030485389067</v>
       </c>
       <c r="L15">
-        <v>1.003045462483243</v>
+        <v>1.022099720148133</v>
       </c>
       <c r="M15">
-        <v>1.009166381232735</v>
+        <v>1.034537031523594</v>
       </c>
       <c r="N15">
-        <v>1.004128157723742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009363645211858</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037210571670589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9794730024529835</v>
+        <v>0.9902931310301434</v>
       </c>
       <c r="D16">
-        <v>1.003511423534653</v>
+        <v>1.011682441558638</v>
       </c>
       <c r="E16">
-        <v>0.9943093487293655</v>
+        <v>1.009878857207686</v>
       </c>
       <c r="F16">
-        <v>1.000799293737195</v>
+        <v>1.022315047535468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040258511527549</v>
+        <v>1.045295265326712</v>
       </c>
       <c r="J16">
-        <v>1.008445914911981</v>
+        <v>1.018819201114253</v>
       </c>
       <c r="K16">
-        <v>1.01778107399434</v>
+        <v>1.025807853773552</v>
       </c>
       <c r="L16">
-        <v>1.008745133072486</v>
+        <v>1.024035846923749</v>
       </c>
       <c r="M16">
-        <v>1.015117496310874</v>
+        <v>1.036257225983982</v>
       </c>
       <c r="N16">
-        <v>1.009878023781519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01004280647113</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038531425041124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9838523042545102</v>
+        <v>0.9921566059273029</v>
       </c>
       <c r="D17">
-        <v>1.006913743097195</v>
+        <v>1.012998908538713</v>
       </c>
       <c r="E17">
-        <v>0.998178822205452</v>
+        <v>1.011238831040172</v>
       </c>
       <c r="F17">
-        <v>1.004822104828265</v>
+        <v>1.023471069362066</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041915520523013</v>
+        <v>1.045801638233835</v>
       </c>
       <c r="J17">
-        <v>1.011945476377884</v>
+        <v>1.019919567088153</v>
       </c>
       <c r="K17">
-        <v>1.020801625646865</v>
+        <v>1.026782794952803</v>
       </c>
       <c r="L17">
-        <v>1.012218858793363</v>
+        <v>1.025052631224947</v>
       </c>
       <c r="M17">
-        <v>1.0187461100646</v>
+        <v>1.037079711413361</v>
       </c>
       <c r="N17">
-        <v>1.013382555026109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010379204091377</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03905230597614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9863638437582865</v>
+        <v>0.9929691557100611</v>
       </c>
       <c r="D18">
-        <v>1.008865919082698</v>
+        <v>1.013553273972223</v>
       </c>
       <c r="E18">
-        <v>1.000398727276095</v>
+        <v>1.011720456179629</v>
       </c>
       <c r="F18">
-        <v>1.007130445763533</v>
+        <v>1.023731757347487</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042864157661472</v>
+        <v>1.045967275048451</v>
       </c>
       <c r="J18">
-        <v>1.013952094599427</v>
+        <v>1.020300436784379</v>
       </c>
       <c r="K18">
-        <v>1.022533350181601</v>
+        <v>1.027142090513467</v>
       </c>
       <c r="L18">
-        <v>1.014210581715497</v>
+        <v>1.025339900264995</v>
       </c>
       <c r="M18">
-        <v>1.020827223142446</v>
+        <v>1.037153048416666</v>
       </c>
       <c r="N18">
-        <v>1.015392022875689</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010441092949486</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038872191452267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9872131928714295</v>
+        <v>0.9928186459634935</v>
       </c>
       <c r="D19">
-        <v>1.009526252903105</v>
+        <v>1.013407013154912</v>
       </c>
       <c r="E19">
-        <v>1.001149572617616</v>
+        <v>1.011391144673361</v>
       </c>
       <c r="F19">
-        <v>1.007911281763567</v>
+        <v>1.023164355537273</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043184680153041</v>
+        <v>1.045820964085425</v>
       </c>
       <c r="J19">
-        <v>1.014630619214312</v>
+        <v>1.020019496947575</v>
       </c>
       <c r="K19">
-        <v>1.023118879677699</v>
+        <v>1.026934944162144</v>
       </c>
       <c r="L19">
-        <v>1.014884055340562</v>
+        <v>1.024952602195118</v>
       </c>
       <c r="M19">
-        <v>1.021531020866376</v>
+        <v>1.036532406714956</v>
       </c>
       <c r="N19">
-        <v>1.016071511073355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010254796412536</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038055256103493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833869361720237</v>
+        <v>0.989993620301136</v>
       </c>
       <c r="D20">
-        <v>1.006552094396693</v>
+        <v>1.011319009874063</v>
       </c>
       <c r="E20">
-        <v>0.9977675510872349</v>
+        <v>1.00882882575228</v>
       </c>
       <c r="F20">
-        <v>1.00439448739236</v>
+        <v>1.020350191656995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041739609707792</v>
+        <v>1.044818173991064</v>
       </c>
       <c r="J20">
-        <v>1.011573633408205</v>
+        <v>1.017915796113436</v>
       </c>
       <c r="K20">
-        <v>1.020480703295588</v>
+        <v>1.025165705873333</v>
       </c>
       <c r="L20">
-        <v>1.011849769333488</v>
+        <v>1.022718187307247</v>
       </c>
       <c r="M20">
-        <v>1.018360502671954</v>
+        <v>1.034044403169019</v>
       </c>
       <c r="N20">
-        <v>1.013010183996762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009387553438954</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035557268059374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9704243705582677</v>
+        <v>0.9837529702246538</v>
       </c>
       <c r="D21">
-        <v>0.9964884893567528</v>
+        <v>1.006859081149427</v>
       </c>
       <c r="E21">
-        <v>0.9863197280032068</v>
+        <v>1.003967843956716</v>
       </c>
       <c r="F21">
-        <v>0.9924961901690749</v>
+        <v>1.015841839760273</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036824123347222</v>
+        <v>1.042960205829783</v>
       </c>
       <c r="J21">
-        <v>1.001212879405781</v>
+        <v>1.013946036551358</v>
       </c>
       <c r="K21">
-        <v>1.01153669517614</v>
+        <v>1.021711660989564</v>
       </c>
       <c r="L21">
-        <v>1.001564996558773</v>
+        <v>1.018874432228801</v>
       </c>
       <c r="M21">
-        <v>1.007621132838271</v>
+        <v>1.030529173225068</v>
       </c>
       <c r="N21">
-        <v>1.002634716535259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008002043122082</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032734140775317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618249583952387</v>
+        <v>0.9797779494385974</v>
       </c>
       <c r="D22">
-        <v>0.9898237366448489</v>
+        <v>1.004025540954758</v>
       </c>
       <c r="E22">
-        <v>0.9787342508871477</v>
+        <v>1.000900567044708</v>
       </c>
       <c r="F22">
-        <v>0.9846167548884093</v>
+        <v>1.013022939489353</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033548621520798</v>
+        <v>1.041772096636884</v>
       </c>
       <c r="J22">
-        <v>0.9943371949790772</v>
+        <v>1.011432102087436</v>
       </c>
       <c r="K22">
-        <v>1.005599519202077</v>
+        <v>1.019517670688737</v>
       </c>
       <c r="L22">
-        <v>0.9947390946995526</v>
+        <v>1.016454204611781</v>
       </c>
       <c r="M22">
-        <v>1.000499243144357</v>
+        <v>1.02834074989906</v>
       </c>
       <c r="N22">
-        <v>0.9957492678480181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007131134821307</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031002129368864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9664297087619057</v>
+        <v>0.9818950865056116</v>
       </c>
       <c r="D23">
-        <v>0.993391322370194</v>
+        <v>1.005534344399145</v>
       </c>
       <c r="E23">
-        <v>0.982795120961638</v>
+        <v>1.002533287506782</v>
       </c>
       <c r="F23">
-        <v>0.9888345662203737</v>
+        <v>1.014523172254013</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035303856980112</v>
+        <v>1.042406152728149</v>
       </c>
       <c r="J23">
-        <v>0.9980190806012985</v>
+        <v>1.012771201707491</v>
       </c>
       <c r="K23">
-        <v>1.008778968581754</v>
+        <v>1.020686666517336</v>
       </c>
       <c r="L23">
-        <v>0.9983943744771933</v>
+        <v>1.017743073779516</v>
       </c>
       <c r="M23">
-        <v>1.004312480582286</v>
+        <v>1.029506030523802</v>
       </c>
       <c r="N23">
-        <v>0.999436382170141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007595071963521</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031924382609277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9835973476928053</v>
+        <v>0.990016445359634</v>
       </c>
       <c r="D24">
-        <v>1.006715607342912</v>
+        <v>1.011329536383795</v>
       </c>
       <c r="E24">
-        <v>0.9979535008810613</v>
+        <v>1.008816395542418</v>
       </c>
       <c r="F24">
-        <v>1.004587826466991</v>
+        <v>1.020302326558814</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041819151204599</v>
+        <v>1.044810586624228</v>
       </c>
       <c r="J24">
-        <v>1.01174175970676</v>
+        <v>1.017904295203891</v>
       </c>
       <c r="K24">
-        <v>1.020625806911336</v>
+        <v>1.025160571577535</v>
       </c>
       <c r="L24">
-        <v>1.012016650905303</v>
+        <v>1.022690434369327</v>
       </c>
       <c r="M24">
-        <v>1.018534850916794</v>
+        <v>1.033982050497543</v>
       </c>
       <c r="N24">
-        <v>1.013178549053945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009372760451121</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035466886180186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001858199054994</v>
+        <v>0.9990340695889037</v>
       </c>
       <c r="D25">
-        <v>1.020923031873252</v>
+        <v>1.017775632998078</v>
       </c>
       <c r="E25">
-        <v>1.014105065324481</v>
+        <v>1.015830387549588</v>
       </c>
       <c r="F25">
-        <v>1.021390863988219</v>
+        <v>1.02676499360314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04868611936186</v>
+        <v>1.047420976832996</v>
       </c>
       <c r="J25">
-        <v>1.026323188807341</v>
+        <v>1.023593984929885</v>
       </c>
       <c r="K25">
-        <v>1.033205000791245</v>
+        <v>1.030104132637071</v>
       </c>
       <c r="L25">
-        <v>1.026488294350153</v>
+        <v>1.028187828792757</v>
       </c>
       <c r="M25">
-        <v>1.033665947626158</v>
+        <v>1.038961554551754</v>
       </c>
       <c r="N25">
-        <v>1.027780685456363</v>
+        <v>1.011341494980593</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039407846624893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005930475894277</v>
+        <v>1.005841670011245</v>
       </c>
       <c r="D2">
-        <v>1.022711100267591</v>
+        <v>1.022211856637935</v>
       </c>
       <c r="E2">
-        <v>1.021221588430917</v>
+        <v>1.021171802405495</v>
       </c>
       <c r="F2">
-        <v>1.031740742281719</v>
+        <v>1.031669166212368</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049367253648979</v>
+        <v>1.049119874395867</v>
       </c>
       <c r="J2">
-        <v>1.027935242843387</v>
+        <v>1.027849050628092</v>
       </c>
       <c r="K2">
-        <v>1.033862847074978</v>
+        <v>1.033370180674699</v>
       </c>
       <c r="L2">
-        <v>1.032392982513326</v>
+        <v>1.032343854427804</v>
       </c>
       <c r="M2">
-        <v>1.042774903466246</v>
+        <v>1.042704249349983</v>
       </c>
       <c r="N2">
-        <v>1.012841997019328</v>
+        <v>1.014337940961091</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042425854874858</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042369937025789</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020922184499969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01078045932284</v>
+        <v>1.010334190263241</v>
       </c>
       <c r="D3">
-        <v>1.026183770845239</v>
+        <v>1.025275490332093</v>
       </c>
       <c r="E3">
-        <v>1.02502741781166</v>
+        <v>1.024685844148328</v>
       </c>
       <c r="F3">
-        <v>1.035257793233768</v>
+        <v>1.034954971596067</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050705811339754</v>
+        <v>1.050249362431003</v>
       </c>
       <c r="J3">
-        <v>1.030981490954732</v>
+        <v>1.030547045135177</v>
       </c>
       <c r="K3">
-        <v>1.036492238040064</v>
+        <v>1.035594866624477</v>
       </c>
       <c r="L3">
-        <v>1.035349777803613</v>
+        <v>1.035012315361808</v>
       </c>
       <c r="M3">
-        <v>1.045458575845384</v>
+        <v>1.045159310196879</v>
       </c>
       <c r="N3">
-        <v>1.013893806643188</v>
+        <v>1.015074928282076</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044549792873532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044312945460531</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021414526181316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013850183441344</v>
+        <v>1.013180851916122</v>
       </c>
       <c r="D4">
-        <v>1.028382073673604</v>
+        <v>1.027217100438573</v>
       </c>
       <c r="E4">
-        <v>1.027442537918478</v>
+        <v>1.026918675786426</v>
       </c>
       <c r="F4">
-        <v>1.037491650431347</v>
+        <v>1.037044386313843</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051538666175427</v>
+        <v>1.050950792883125</v>
       </c>
       <c r="J4">
-        <v>1.032906115131498</v>
+        <v>1.032253295877607</v>
       </c>
       <c r="K4">
-        <v>1.038149607106143</v>
+        <v>1.036997772073318</v>
       </c>
       <c r="L4">
-        <v>1.037220664275499</v>
+        <v>1.03670271887088</v>
       </c>
       <c r="M4">
-        <v>1.047157699543321</v>
+        <v>1.046715366968625</v>
       </c>
       <c r="N4">
-        <v>1.014557795046656</v>
+        <v>1.015540770167279</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045894526623502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04554445255923</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021722240749583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015124885494471</v>
+        <v>1.014363640626753</v>
       </c>
       <c r="D5">
-        <v>1.029294928948306</v>
+        <v>1.028023861559193</v>
       </c>
       <c r="E5">
-        <v>1.028446868264893</v>
+        <v>1.0278478526187</v>
       </c>
       <c r="F5">
-        <v>1.03842106726001</v>
+        <v>1.037914255599711</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05188100318603</v>
+        <v>1.051238757735791</v>
       </c>
       <c r="J5">
-        <v>1.033704441867864</v>
+        <v>1.032961406551611</v>
       </c>
       <c r="K5">
-        <v>1.038836124050757</v>
+        <v>1.037579005498378</v>
       </c>
       <c r="L5">
-        <v>1.037997365378767</v>
+        <v>1.037404931440665</v>
       </c>
       <c r="M5">
-        <v>1.047863339976332</v>
+        <v>1.047361965973082</v>
       </c>
       <c r="N5">
-        <v>1.014833077435435</v>
+        <v>1.015734038270617</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046452989363548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046056188591113</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021849058990469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015338003285275</v>
+        <v>1.014561431887332</v>
       </c>
       <c r="D6">
-        <v>1.02944754816438</v>
+        <v>1.028158771244883</v>
       </c>
       <c r="E6">
-        <v>1.0286148664034</v>
+        <v>1.028003316749657</v>
       </c>
       <c r="F6">
-        <v>1.038576561290686</v>
+        <v>1.03805981845891</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051938030803815</v>
+        <v>1.051286706300479</v>
       </c>
       <c r="J6">
-        <v>1.033837861750049</v>
+        <v>1.033079769644724</v>
       </c>
       <c r="K6">
-        <v>1.038950801104913</v>
+        <v>1.037676102018285</v>
       </c>
       <c r="L6">
-        <v>1.038127210112914</v>
+        <v>1.03752234854486</v>
       </c>
       <c r="M6">
-        <v>1.047981319518775</v>
+        <v>1.047470095272753</v>
       </c>
       <c r="N6">
-        <v>1.014879075576381</v>
+        <v>1.015766340015331</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04654636149231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04614176502393</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021870204662654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013867277425463</v>
+        <v>1.013208153978725</v>
       </c>
       <c r="D7">
-        <v>1.028394315273321</v>
+        <v>1.027236590964878</v>
       </c>
       <c r="E7">
-        <v>1.027456000499179</v>
+        <v>1.026940917776046</v>
       </c>
       <c r="F7">
-        <v>1.037504107011967</v>
+        <v>1.037063566025569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051543270906806</v>
+        <v>1.050959251506764</v>
       </c>
       <c r="J7">
-        <v>1.032916824343883</v>
+        <v>1.032273954448004</v>
       </c>
       <c r="K7">
-        <v>1.038158820235403</v>
+        <v>1.037014147525496</v>
       </c>
       <c r="L7">
-        <v>1.037231080764402</v>
+        <v>1.036721813419886</v>
       </c>
       <c r="M7">
-        <v>1.047167162055609</v>
+        <v>1.046731476684149</v>
       </c>
       <c r="N7">
-        <v>1.014561488394115</v>
+        <v>1.015573111598119</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045902015511996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045557202230417</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021726759732511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007584112727465</v>
+        <v>1.007408115213813</v>
       </c>
       <c r="D8">
-        <v>1.023895021071301</v>
+        <v>1.023282745835031</v>
       </c>
       <c r="E8">
-        <v>1.022517861970929</v>
+        <v>1.022398452358062</v>
       </c>
       <c r="F8">
-        <v>1.032938231909733</v>
+        <v>1.032810729594031</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049826623560515</v>
+        <v>1.049521966003346</v>
       </c>
       <c r="J8">
-        <v>1.028974580275165</v>
+        <v>1.028803584711737</v>
       </c>
       <c r="K8">
-        <v>1.034760761830535</v>
+        <v>1.034156309301735</v>
       </c>
       <c r="L8">
-        <v>1.033401214393397</v>
+        <v>1.033283334632537</v>
       </c>
       <c r="M8">
-        <v>1.043689778840382</v>
+        <v>1.043563869245119</v>
       </c>
       <c r="N8">
-        <v>1.013200970769594</v>
+        <v>1.014680144722232</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043149915104223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043050266459325</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.0210996486562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9959588311042999</v>
+        <v>0.9966660802200581</v>
       </c>
       <c r="D9">
-        <v>1.015576229859137</v>
+        <v>1.015962912587486</v>
       </c>
       <c r="E9">
-        <v>1.013433965318756</v>
+        <v>1.014034269129612</v>
       </c>
       <c r="F9">
-        <v>1.024555582560012</v>
+        <v>1.024998593419984</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046538515419774</v>
+        <v>1.046743176966376</v>
       </c>
       <c r="J9">
-        <v>1.021655104997666</v>
+        <v>1.022337119591044</v>
       </c>
       <c r="K9">
-        <v>1.028421549218023</v>
+        <v>1.028802204850142</v>
       </c>
       <c r="L9">
-        <v>1.026312782032073</v>
+        <v>1.026903680983754</v>
       </c>
       <c r="M9">
-        <v>1.037262440529026</v>
+        <v>1.037698700237444</v>
       </c>
       <c r="N9">
-        <v>1.010670850499121</v>
+        <v>1.012922858477361</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038063108495142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038408379893092</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019899741931159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9878944622670845</v>
+        <v>0.9892830913641537</v>
       </c>
       <c r="D10">
-        <v>1.009821644504685</v>
+        <v>1.010951305537203</v>
       </c>
       <c r="E10">
-        <v>1.007210051584374</v>
+        <v>1.008364825648333</v>
       </c>
       <c r="F10">
-        <v>1.018869873140213</v>
+        <v>1.019752183809915</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044204868410414</v>
+        <v>1.044787761528323</v>
       </c>
       <c r="J10">
-        <v>1.016596744664771</v>
+        <v>1.017928456221516</v>
       </c>
       <c r="K10">
-        <v>1.024015801927528</v>
+        <v>1.025125606446232</v>
       </c>
       <c r="L10">
-        <v>1.021450335249005</v>
+        <v>1.02258467535265</v>
       </c>
       <c r="M10">
-        <v>1.03290658425762</v>
+        <v>1.033773735274657</v>
       </c>
       <c r="N10">
-        <v>1.008933904400907</v>
+        <v>1.011848260492993</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034667397598552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035353651621264</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019072237476655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9851097739216959</v>
+        <v>0.9867732782510239</v>
       </c>
       <c r="D11">
-        <v>1.007895440577266</v>
+        <v>1.00930923345624</v>
       </c>
       <c r="E11">
-        <v>1.005378623699414</v>
+        <v>1.006749514299069</v>
       </c>
       <c r="F11">
-        <v>1.017566532079911</v>
+        <v>1.018622812652971</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043531066575847</v>
+        <v>1.044259715642963</v>
       </c>
       <c r="J11">
-        <v>1.015115397040951</v>
+        <v>1.016706847722336</v>
       </c>
       <c r="K11">
-        <v>1.022669980811009</v>
+        <v>1.024057701008117</v>
       </c>
       <c r="L11">
-        <v>1.020199814918389</v>
+        <v>1.021545257374362</v>
       </c>
       <c r="M11">
-        <v>1.032164602503692</v>
+        <v>1.033201872721548</v>
       </c>
       <c r="N11">
-        <v>1.008544067002168</v>
+        <v>1.011830052568158</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034518411512099</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035338880029478</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.0188855534372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9843657823057105</v>
+        <v>0.9860957171028066</v>
       </c>
       <c r="D12">
-        <v>1.007407484177122</v>
+        <v>1.008890712287951</v>
       </c>
       <c r="E12">
-        <v>1.0050359692748</v>
+        <v>1.006453054446075</v>
       </c>
       <c r="F12">
-        <v>1.0175232585323</v>
+        <v>1.018619241580723</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043417090092675</v>
+        <v>1.044181705297345</v>
       </c>
       <c r="J12">
-        <v>1.014846871868675</v>
+        <v>1.016500415175284</v>
       </c>
       <c r="K12">
-        <v>1.022394131300778</v>
+        <v>1.023849539746762</v>
       </c>
       <c r="L12">
-        <v>1.020067319887725</v>
+        <v>1.02145765965101</v>
       </c>
       <c r="M12">
-        <v>1.032322268547668</v>
+        <v>1.033398213522322</v>
       </c>
       <c r="N12">
-        <v>1.008548144739843</v>
+        <v>1.011939675131085</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034970807363538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035821577006558</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018876964267558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.985149159269616</v>
+        <v>0.9867723409578393</v>
       </c>
       <c r="D13">
-        <v>1.007998322093404</v>
+        <v>1.009377389737956</v>
       </c>
       <c r="E13">
-        <v>1.005821495576363</v>
+        <v>1.007143592903941</v>
       </c>
       <c r="F13">
-        <v>1.018461751544278</v>
+        <v>1.019486231175284</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043734521060065</v>
+        <v>1.044446314728222</v>
       </c>
       <c r="J13">
-        <v>1.015500633818852</v>
+        <v>1.017052552454043</v>
       </c>
       <c r="K13">
-        <v>1.022930349758446</v>
+        <v>1.024283674048933</v>
       </c>
       <c r="L13">
-        <v>1.020794346176386</v>
+        <v>1.022091622188702</v>
       </c>
       <c r="M13">
-        <v>1.03320072319577</v>
+        <v>1.034206577700039</v>
       </c>
       <c r="N13">
-        <v>1.008857200858475</v>
+        <v>1.012117982436651</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035942930110944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036738077029892</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019004453203803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9863826886072316</v>
+        <v>0.9878553805165489</v>
       </c>
       <c r="D14">
-        <v>1.008895390167203</v>
+        <v>1.010125386168316</v>
       </c>
       <c r="E14">
-        <v>1.006875118256835</v>
+        <v>1.008069663192954</v>
       </c>
       <c r="F14">
-        <v>1.019556936898776</v>
+        <v>1.020483145822548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044148854375318</v>
+        <v>1.044784719505053</v>
       </c>
       <c r="J14">
-        <v>1.01636962630947</v>
+        <v>1.017778655353762</v>
       </c>
       <c r="K14">
-        <v>1.023668231267503</v>
+        <v>1.024875567620612</v>
       </c>
       <c r="L14">
-        <v>1.021685334574131</v>
+        <v>1.02285775672041</v>
       </c>
       <c r="M14">
-        <v>1.034135725848821</v>
+        <v>1.035045325365842</v>
       </c>
       <c r="N14">
-        <v>1.009208631882053</v>
+        <v>1.012274174700122</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036855769209204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037574727490262</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019154740639925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.987020960169854</v>
+        <v>0.9884200078964833</v>
       </c>
       <c r="D15">
-        <v>1.009353797896952</v>
+        <v>1.010510097033857</v>
       </c>
       <c r="E15">
-        <v>1.00738694010384</v>
+        <v>1.008520496409407</v>
       </c>
       <c r="F15">
-        <v>1.020053523164887</v>
+        <v>1.020932147662448</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044347192767085</v>
+        <v>1.044945450480165</v>
       </c>
       <c r="J15">
-        <v>1.016789406539447</v>
+        <v>1.018128532654172</v>
       </c>
       <c r="K15">
-        <v>1.024030485389067</v>
+        <v>1.025165651380799</v>
       </c>
       <c r="L15">
-        <v>1.022099720148133</v>
+        <v>1.023212452900128</v>
       </c>
       <c r="M15">
-        <v>1.034537031523594</v>
+        <v>1.035400026277131</v>
       </c>
       <c r="N15">
-        <v>1.009363645211858</v>
+        <v>1.012332843949359</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037210571670589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037892675075023</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019223311040761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9902931310301434</v>
+        <v>0.9913453494738358</v>
       </c>
       <c r="D16">
-        <v>1.011682441558638</v>
+        <v>1.012484546808248</v>
       </c>
       <c r="E16">
-        <v>1.009878857207686</v>
+        <v>1.010731195418566</v>
       </c>
       <c r="F16">
-        <v>1.022315047535468</v>
+        <v>1.022971298622541</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045295265326712</v>
+        <v>1.045712508068143</v>
       </c>
       <c r="J16">
-        <v>1.018819201114253</v>
+        <v>1.019828703645298</v>
       </c>
       <c r="K16">
-        <v>1.025807853773552</v>
+        <v>1.026595962408244</v>
       </c>
       <c r="L16">
-        <v>1.024035846923749</v>
+        <v>1.024873244038572</v>
       </c>
       <c r="M16">
-        <v>1.036257225983982</v>
+        <v>1.036902328877209</v>
       </c>
       <c r="N16">
-        <v>1.01004280647113</v>
+        <v>1.012570239132659</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038531425041124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.039041323509035</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019538938996848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9921566059273029</v>
+        <v>0.9930346618403142</v>
       </c>
       <c r="D17">
-        <v>1.012998908538713</v>
+        <v>1.01361693354216</v>
       </c>
       <c r="E17">
-        <v>1.011238831040172</v>
+        <v>1.011952464180798</v>
       </c>
       <c r="F17">
-        <v>1.023471069362066</v>
+        <v>1.02401621391998</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045801638233835</v>
+        <v>1.046124728946101</v>
       </c>
       <c r="J17">
-        <v>1.019919567088153</v>
+        <v>1.020763164477184</v>
       </c>
       <c r="K17">
-        <v>1.026782794952803</v>
+        <v>1.027390347984087</v>
       </c>
       <c r="L17">
-        <v>1.025052631224947</v>
+        <v>1.025754119468424</v>
       </c>
       <c r="M17">
-        <v>1.037079711413361</v>
+        <v>1.037615859639399</v>
       </c>
       <c r="N17">
-        <v>1.010379204091377</v>
+        <v>1.012700590292061</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03905230597614</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.039476127559902</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019703491972183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9929691557100611</v>
+        <v>0.9937904941690796</v>
       </c>
       <c r="D18">
-        <v>1.013553273972223</v>
+        <v>1.014106010756959</v>
       </c>
       <c r="E18">
-        <v>1.011720456179629</v>
+        <v>1.012392905009022</v>
       </c>
       <c r="F18">
-        <v>1.023731757347487</v>
+        <v>1.024241728045688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045967275048451</v>
+        <v>1.046256766592977</v>
       </c>
       <c r="J18">
-        <v>1.020300436784379</v>
+        <v>1.021090159223197</v>
       </c>
       <c r="K18">
-        <v>1.027142090513467</v>
+        <v>1.02768561870322</v>
       </c>
       <c r="L18">
-        <v>1.025339900264995</v>
+        <v>1.026001095451938</v>
       </c>
       <c r="M18">
-        <v>1.037153048416666</v>
+        <v>1.037654738107612</v>
       </c>
       <c r="N18">
-        <v>1.010441092949486</v>
+        <v>1.012702794308755</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038872191452267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.03926885673185</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019744606881428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9928186459634935</v>
+        <v>0.9936822132376906</v>
       </c>
       <c r="D19">
-        <v>1.013407013154912</v>
+        <v>1.013997222400485</v>
       </c>
       <c r="E19">
-        <v>1.011391144673361</v>
+        <v>1.012104673543553</v>
       </c>
       <c r="F19">
-        <v>1.023164355537273</v>
+        <v>1.023703457298459</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045820964085425</v>
+        <v>1.046129196738511</v>
       </c>
       <c r="J19">
-        <v>1.020019496947575</v>
+        <v>1.020850005290499</v>
       </c>
       <c r="K19">
-        <v>1.026934944162144</v>
+        <v>1.027515369935867</v>
       </c>
       <c r="L19">
-        <v>1.024952602195118</v>
+        <v>1.02565424448493</v>
       </c>
       <c r="M19">
-        <v>1.036532406714956</v>
+        <v>1.037062789028299</v>
       </c>
       <c r="N19">
-        <v>1.010254796412536</v>
+        <v>1.012567815667855</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038055256103493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.03847474500747</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019670440797142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.989993620301136</v>
+        <v>0.9911704746091331</v>
       </c>
       <c r="D20">
-        <v>1.011319009874063</v>
+        <v>1.012229088447832</v>
       </c>
       <c r="E20">
-        <v>1.00882882575228</v>
+        <v>1.009809742453941</v>
       </c>
       <c r="F20">
-        <v>1.020350191656995</v>
+        <v>1.021095439657189</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044818173991064</v>
+        <v>1.045288966421396</v>
       </c>
       <c r="J20">
-        <v>1.017915796113436</v>
+        <v>1.019046054486212</v>
       </c>
       <c r="K20">
-        <v>1.025165705873333</v>
+        <v>1.026060259267082</v>
       </c>
       <c r="L20">
-        <v>1.022718187307247</v>
+        <v>1.023682265014684</v>
       </c>
       <c r="M20">
-        <v>1.034044403169019</v>
+        <v>1.034777223426371</v>
       </c>
       <c r="N20">
-        <v>1.009387553438954</v>
+        <v>1.01204925860931</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035557268059374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.036137220982419</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019281174251261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9837529702246538</v>
+        <v>0.9856344382624239</v>
       </c>
       <c r="D21">
-        <v>1.006859081149427</v>
+        <v>1.008479975905615</v>
       </c>
       <c r="E21">
-        <v>1.003967843956716</v>
+        <v>1.005532160457135</v>
       </c>
       <c r="F21">
-        <v>1.015841839760273</v>
+        <v>1.017045174520187</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042960205829783</v>
+        <v>1.043794318956351</v>
       </c>
       <c r="J21">
-        <v>1.013946036551358</v>
+        <v>1.01574530314837</v>
       </c>
       <c r="K21">
-        <v>1.021711660989564</v>
+        <v>1.023302454011525</v>
       </c>
       <c r="L21">
-        <v>1.018874432228801</v>
+        <v>1.020409476904887</v>
       </c>
       <c r="M21">
-        <v>1.030529173225068</v>
+        <v>1.031710659862871</v>
       </c>
       <c r="N21">
-        <v>1.008002043122082</v>
+        <v>1.011577280324775</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032734140775317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.033669217828264</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018659978836734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9797779494385974</v>
+        <v>0.9821106110068381</v>
       </c>
       <c r="D22">
-        <v>1.004025540954758</v>
+        <v>1.006100898988142</v>
       </c>
       <c r="E22">
-        <v>1.000900567044708</v>
+        <v>1.002838084413396</v>
       </c>
       <c r="F22">
-        <v>1.013022939489353</v>
+        <v>1.014519576051747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041772096636884</v>
+        <v>1.042838146648319</v>
       </c>
       <c r="J22">
-        <v>1.011432102087436</v>
+        <v>1.013656575080397</v>
       </c>
       <c r="K22">
-        <v>1.019517670688737</v>
+        <v>1.021552457042924</v>
       </c>
       <c r="L22">
-        <v>1.016454204611781</v>
+        <v>1.0183535271817</v>
       </c>
       <c r="M22">
-        <v>1.02834074989906</v>
+        <v>1.029808782389423</v>
       </c>
       <c r="N22">
-        <v>1.007131134821307</v>
+        <v>1.011278387563279</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031002129368864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.032163993266804</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018266656752292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9818950865056116</v>
+        <v>0.9839678021601203</v>
       </c>
       <c r="D23">
-        <v>1.005534344399145</v>
+        <v>1.00735244844811</v>
       </c>
       <c r="E23">
-        <v>1.002533287506782</v>
+        <v>1.004254829251674</v>
       </c>
       <c r="F23">
-        <v>1.014523172254013</v>
+        <v>1.01585041292129</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042406152728149</v>
+        <v>1.04334072653791</v>
       </c>
       <c r="J23">
-        <v>1.012771201707491</v>
+        <v>1.014750762444607</v>
       </c>
       <c r="K23">
-        <v>1.020686666517336</v>
+        <v>1.022470175323425</v>
       </c>
       <c r="L23">
-        <v>1.017743073779516</v>
+        <v>1.01943159652347</v>
       </c>
       <c r="M23">
-        <v>1.029506030523802</v>
+        <v>1.030808580507494</v>
       </c>
       <c r="N23">
-        <v>1.007595071963521</v>
+        <v>1.011391391292775</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031924382609277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.032955275287379</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018471356118089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.990016445359634</v>
+        <v>0.991194798668855</v>
       </c>
       <c r="D24">
-        <v>1.011329536383795</v>
+        <v>1.012240367099174</v>
       </c>
       <c r="E24">
-        <v>1.008816395542418</v>
+        <v>1.009799423117951</v>
       </c>
       <c r="F24">
-        <v>1.020302326558814</v>
+        <v>1.021048881571381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044810586624228</v>
+        <v>1.045281715809768</v>
       </c>
       <c r="J24">
-        <v>1.017904295203891</v>
+        <v>1.019036062066869</v>
       </c>
       <c r="K24">
-        <v>1.025160571577535</v>
+        <v>1.026055884680149</v>
       </c>
       <c r="L24">
-        <v>1.022690434369327</v>
+        <v>1.023656607923383</v>
       </c>
       <c r="M24">
-        <v>1.033982050497543</v>
+        <v>1.03471617044581</v>
       </c>
       <c r="N24">
-        <v>1.009372760451121</v>
+        <v>1.012035507970272</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035466886180186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.036047896754094</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.01927526246007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9990340695889037</v>
+        <v>0.9994899699833075</v>
       </c>
       <c r="D25">
-        <v>1.017775632998078</v>
+        <v>1.017884887098403</v>
       </c>
       <c r="E25">
-        <v>1.015830387549588</v>
+        <v>1.016225533119823</v>
       </c>
       <c r="F25">
-        <v>1.02676499360314</v>
+        <v>1.027045621955755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047420976832996</v>
+        <v>1.047484223363312</v>
       </c>
       <c r="J25">
-        <v>1.023593984929885</v>
+        <v>1.024034510872647</v>
       </c>
       <c r="K25">
-        <v>1.030104132637071</v>
+        <v>1.030211765411683</v>
       </c>
       <c r="L25">
-        <v>1.028187828792757</v>
+        <v>1.028577083933969</v>
       </c>
       <c r="M25">
-        <v>1.038961554551754</v>
+        <v>1.039238111199058</v>
       </c>
       <c r="N25">
-        <v>1.011341494980593</v>
+        <v>1.013352673601164</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039407846624893</v>
+        <v>1.039626722967595</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020216973361619</v>
       </c>
     </row>
   </sheetData>
